--- a/Header/STM8AF_STM8S_Peripherals.xlsx
+++ b/Header/STM8AF_STM8S_Peripherals.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="172">
   <si>
     <t xml:space="preserve">Part Number</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t xml:space="preserve">0x4865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Peripheral</t>
@@ -634,7 +646,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +657,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -702,7 +720,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,7 +753,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,7 +781,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -831,13 +853,13 @@
   <dimension ref="A1:AMJ75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="topLeft" activeCell="D42" activeCellId="1" sqref="AE23 D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="985" min="3" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="986" style="0" width="11.52"/>
   </cols>
@@ -1544,13 +1566,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE23" activeCellId="0" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="6.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
@@ -4083,6 +4105,122 @@
       </c>
       <c r="AM21" s="3" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4107,7 +4245,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="1" sqref="AE23 D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4118,307 +4256,307 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>134</v>
+      <c r="A1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>135</v>
+      <c r="B2" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>136</v>
+      <c r="B3" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>137</v>
+      <c r="B4" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>138</v>
+      <c r="B5" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>139</v>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>140</v>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>141</v>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>142</v>
+      <c r="B9" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>143</v>
+      <c r="B10" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>144</v>
+      <c r="B11" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>145</v>
+      <c r="B12" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>146</v>
+      <c r="B13" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>147</v>
+      <c r="B14" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>148</v>
+      <c r="B15" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>149</v>
+      <c r="B16" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>150</v>
+      <c r="B17" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>151</v>
+      <c r="B18" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>152</v>
+      <c r="B19" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>153</v>
+      <c r="B20" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>154</v>
+      <c r="B21" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>155</v>
+      <c r="B22" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>156</v>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>156</v>
+      <c r="B24" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>155</v>
+      <c r="B25" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
+      <c r="B26" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>158</v>
+      <c r="B27" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>159</v>
+      <c r="B28" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>160</v>
+      <c r="B29" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>158</v>
+      <c r="B30" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>160</v>
+      <c r="B31" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>161</v>
+      <c r="B32" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>162</v>
+      <c r="B33" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>163</v>
+      <c r="B34" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>164</v>
+      <c r="B35" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>165</v>
+      <c r="B36" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>166</v>
+      <c r="B37" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>167</v>
+      <c r="B38" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Header/STM8AF_STM8S_Peripherals.xlsx
+++ b/Header/STM8AF_STM8S_Peripherals.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
   <si>
     <t xml:space="preserve">Part Number</t>
   </si>
@@ -462,18 +462,6 @@
   </si>
   <si>
     <t xml:space="preserve">0x4865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Peripheral</t>
@@ -646,7 +634,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,12 +645,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -720,7 +702,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -753,11 +735,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,7 +759,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -853,7 +831,7 @@
   <dimension ref="A1:AMJ75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="1" sqref="AE23 D42"/>
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1564,10 +1542,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE23" activeCellId="0" sqref="AE23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4107,123 +4085,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM23" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AM21"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4245,7 +4107,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="1" sqref="AE23 D37"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4256,307 +4118,307 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="9" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="10" t="s">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="10" t="s">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="10" t="s">
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="10" t="s">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="10" t="s">
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="10" t="s">
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="10" t="s">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
